--- a/Glossary/1.xlsx
+++ b/Glossary/1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FILES\PROJECTS\Glossary\Glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1396">
   <si>
     <t>1 inch videotape</t>
   </si>
@@ -21976,6 +21976,21 @@
   </si>
   <si>
     <t>فرمتی نیمه­حرفه­ای بر مبنای کاست DV است که شرکت سونی در سال 1996 ارائه کرد. سرعت حرکت نوار  DVca4/28 میلی‌متر در ثانیه در دستگاه­های استاندارد پال است. پهنای نوار مورد استفاده در این کاست، یک­چهارم اینچ (35/6 میلی‌متر) است. این فرمت، کاست­هایی در دو اندازه دارد: کاست استاندارد یا بزرگ و کاست مینی یا کوچک. بر روی کاست استاندارد یا بزرگ می‌توان تا 184 دقیقه تصویر و صدا و بر کاست کوچک می­توان تا 40 دقیقه تصویر و صدا ضبط کرد. پهنای باریکه در DVcam 15 میکرون است. این فرمت از فرمت­های تصویری دیجیتال به حساب می­آید.</t>
+  </si>
+  <si>
+    <t>1#2</t>
+  </si>
+  <si>
+    <t>tests 111</t>
+  </si>
+  <si>
+    <t>test2 22 2</t>
+  </si>
+  <si>
+    <t>ref 1111</t>
+  </si>
+  <si>
+    <t>ref 2222</t>
   </si>
 </sst>
 </file>
@@ -22801,8 +22816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H607"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22859,8 +22874,12 @@
       <c r="E2" s="26">
         <v>4</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="F2" s="26" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>1391</v>
+      </c>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="83.25" customHeight="1">
@@ -33171,7 +33190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -33519,7 +33538,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33541,13 +33560,17 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>1393</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4">
@@ -33709,7 +33732,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33731,13 +33754,17 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4">
